--- a/processed/work_attendance(20250713-0726).xlsx
+++ b/processed/work_attendance(20250713-0726).xlsx
@@ -147,6 +147,411 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>系统检测</author>
+  </authors>
+  <commentList>
+    <comment ref="D2" authorId="0" shapeId="0">
+      <text>
+        <t>迟到 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0">
+      <text>
+        <t>迟到 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0">
+      <text>
+        <t>迟到 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0">
+      <text>
+        <t>迟到 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="0" shapeId="0">
+      <text>
+        <t>迟到 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="0" shapeId="0">
+      <text>
+        <t>迟到 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="0" shapeId="0">
+      <text>
+        <t>迟到 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="O2" authorId="0" shapeId="0">
+      <text>
+        <t>迟到 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0">
+      <text>
+        <t>迟到 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0">
+      <text>
+        <t>迟到 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="K4" authorId="0" shapeId="0">
+      <text>
+        <t>迟到 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="M4" authorId="0" shapeId="0">
+      <text>
+        <t>迟到 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0" shapeId="0">
+      <text>
+        <t>迟到 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0" shapeId="0">
+      <text>
+        <t>迟到 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="H5" authorId="0" shapeId="0">
+      <text>
+        <t>迟到 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="J5" authorId="0" shapeId="0">
+      <text>
+        <t>迟到 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="L5" authorId="0" shapeId="0">
+      <text>
+        <t>迟到 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="M5" authorId="0" shapeId="0">
+      <text>
+        <t>迟到 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="N5" authorId="0" shapeId="0">
+      <text>
+        <t>迟到 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="O5" authorId="0" shapeId="0">
+      <text>
+        <t>迟到 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="0" shapeId="0">
+      <text>
+        <t>迟到 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="M7" authorId="0" shapeId="0">
+      <text>
+        <t>迟到 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="M13" authorId="0" shapeId="0">
+      <text>
+        <t>迟到 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="K15" authorId="0" shapeId="0">
+      <text>
+        <t>迟到 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="C17" authorId="0" shapeId="0">
+      <text>
+        <t>迟到 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="D17" authorId="0" shapeId="0">
+      <text>
+        <t>迟到 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="E17" authorId="0" shapeId="0">
+      <text>
+        <t>迟到 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="F17" authorId="0" shapeId="0">
+      <text>
+        <t>迟到 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="G17" authorId="0" shapeId="0">
+      <text>
+        <t>迟到 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="J17" authorId="0" shapeId="0">
+      <text>
+        <t>迟到 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="K17" authorId="0" shapeId="0">
+      <text>
+        <t>迟到 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="L17" authorId="0" shapeId="0">
+      <text>
+        <t>迟到 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="M17" authorId="0" shapeId="0">
+      <text>
+        <t>迟到 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="N17" authorId="0" shapeId="0">
+      <text>
+        <t>迟到 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="G19" authorId="0" shapeId="0">
+      <text>
+        <t>迟到 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="C21" authorId="0" shapeId="0">
+      <text>
+        <t>迟到 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="J21" authorId="0" shapeId="0">
+      <text>
+        <t>迟到 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="K21" authorId="0" shapeId="0">
+      <text>
+        <t>迟到 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="F22" authorId="0" shapeId="0">
+      <text>
+        <t>迟到 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="L22" authorId="0" shapeId="0">
+      <text>
+        <t>迟到 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="M22" authorId="0" shapeId="0">
+      <text>
+        <t>迟到 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="N22" authorId="0" shapeId="0">
+      <text>
+        <t>迟到 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="D24" authorId="0" shapeId="0">
+      <text>
+        <t>迟到 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="G24" authorId="0" shapeId="0">
+      <text>
+        <t>迟到 - 需要关注</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>系统检测</author>
+  </authors>
+  <commentList>
+    <comment ref="H2" authorId="0" shapeId="0">
+      <text>
+        <t>中午不打卡 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="O2" authorId="0" shapeId="0">
+      <text>
+        <t>中午不打卡 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0" shapeId="0">
+      <text>
+        <t>中午不打卡 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0" shapeId="0">
+      <text>
+        <t>中午不打卡 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="O3" authorId="0" shapeId="0">
+      <text>
+        <t>中午不打卡 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0">
+      <text>
+        <t>中午不打卡 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0">
+      <text>
+        <t>中午不打卡 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="K4" authorId="0" shapeId="0">
+      <text>
+        <t>中午不打卡 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="M4" authorId="0" shapeId="0">
+      <text>
+        <t>中午不打卡 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0" shapeId="0">
+      <text>
+        <t>中午不打卡 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="H5" authorId="0" shapeId="0">
+      <text>
+        <t>中午不打卡 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="J5" authorId="0" shapeId="0">
+      <text>
+        <t>中午不打卡 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="O5" authorId="0" shapeId="0">
+      <text>
+        <t>中午不打卡 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="N8" authorId="0" shapeId="0">
+      <text>
+        <t>中午不打卡 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="C16" authorId="0" shapeId="0">
+      <text>
+        <t>中午不打卡 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="J16" authorId="0" shapeId="0">
+      <text>
+        <t>中午不打卡 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="K16" authorId="0" shapeId="0">
+      <text>
+        <t>中午不打卡 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="L16" authorId="0" shapeId="0">
+      <text>
+        <t>中午不打卡 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="N16" authorId="0" shapeId="0">
+      <text>
+        <t>中午不打卡 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="G24" authorId="0" shapeId="0">
+      <text>
+        <t>中午不打卡 - 需要关注</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>系统检测</author>
+  </authors>
+  <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <t>早退 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0">
+      <text>
+        <t>早退 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="O2" authorId="0" shapeId="0">
+      <text>
+        <t>早退 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0" shapeId="0">
+      <text>
+        <t>早退 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="O3" authorId="0" shapeId="0">
+      <text>
+        <t>早退 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="O4" authorId="0" shapeId="0">
+      <text>
+        <t>早退 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="N6" authorId="0" shapeId="0">
+      <text>
+        <t>早退 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="N8" authorId="0" shapeId="0">
+      <text>
+        <t>早退 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="N25" authorId="0" shapeId="0">
+      <text>
+        <t>早退 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="C26" authorId="0" shapeId="0">
+      <text>
+        <t>早退 - 需要关注</t>
+      </text>
+    </comment>
+    <comment ref="G26" authorId="0" shapeId="0">
+      <text>
+        <t>早退 - 需要关注</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -762,7 +1167,7 @@
         <v>6.62</v>
       </c>
       <c r="T2" t="n">
-        <v>10.57</v>
+        <v>10.32</v>
       </c>
       <c r="U2" t="n">
         <v>7.35</v>
@@ -774,7 +1179,7 @@
         <v>40</v>
       </c>
       <c r="X2" t="n">
-        <v>2.93</v>
+        <v>2.68</v>
       </c>
       <c r="Y2" t="n">
         <v/>
@@ -795,7 +1200,7 @@
         <v>40</v>
       </c>
       <c r="AE2" t="n">
-        <v>2.93</v>
+        <v>2.68</v>
       </c>
       <c r="AF2" t="n">
         <v>40</v>
@@ -807,7 +1212,7 @@
         <v>80</v>
       </c>
       <c r="AI2" t="n">
-        <v>4.859999999999999</v>
+        <v>4.609999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -22239,6 +22644,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
@@ -22358,7 +22764,7 @@
 </t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve">10:36  
 11:18 11:33
@@ -28611,6 +29017,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
@@ -34983,6 +35390,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
@@ -34992,7 +35400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35000,8 +35408,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10.8" customWidth="1" min="1" max="1"/>
-    <col width="7.199999999999999" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -35081,7 +35489,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -35092,6 +35500,102 @@
       </c>
       <c r="B10" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>异常类型颜色说明</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>冒号距离异常</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>浅红色 - 时间格式问题</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>奇数时间记录</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>深红色 - 打卡次数不匹配</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>时间顺序错误</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>深橙色 - 时间顺序混乱</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>时间格式无效</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>橙红色 - 格式不符合标准</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>解析错误</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>紫色 - 无法解析的数据</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>混合分隔符</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>天蓝色 - 多种分隔符混用</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>工作时间跨度异常</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>金色 - 工作时间过长</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/processed/work_attendance(20250713-0726).xlsx
+++ b/processed/work_attendance(20250713-0726).xlsx
@@ -30,7 +30,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -47,6 +47,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FFC7CE"/>
         <bgColor rgb="00FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0087CEEB"/>
+        <bgColor rgb="0087CEEB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFD700"/>
+        <bgColor rgb="00FFD700"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF8C00"/>
+        <bgColor rgb="00FF8C00"/>
       </patternFill>
     </fill>
     <fill>
@@ -68,11 +86,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -150,6 +171,93 @@
 </file>
 
 <file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>系统检测</author>
+  </authors>
+  <commentList>
+    <comment ref="D2" authorId="0" shapeId="0">
+      <text>
+        <t>异常类型: mixed_separators
+时间字符串包含多种分隔符，可能导致解析错误
+员工: yixuan huang</t>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <t>异常类型: mixed_separators
+时间字符串包含多种分隔符，可能导致解析错误
+员工: yixuan huang</t>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0">
+      <text>
+        <t>异常类型: mixed_separators
+时间字符串包含多种分隔符，可能导致解析错误
+员工: yixuan huang</t>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0">
+      <text>
+        <t>异常类型: mixed_separators
+时间字符串包含多种分隔符，可能导致解析错误
+员工: yixuan huang</t>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0">
+      <text>
+        <t>异常类型: mixed_separators
+时间字符串包含多种分隔符，可能导致解析错误
+员工: yixuan huang</t>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="0" shapeId="0">
+      <text>
+        <t>异常类型: mixed_separators
+时间字符串包含多种分隔符，可能导致解析错误
+员工: yixuan huang</t>
+      </text>
+    </comment>
+    <comment ref="O2" authorId="0" shapeId="0">
+      <text>
+        <t>异常类型: mixed_separators
+时间字符串包含多种分隔符，可能导致解析错误
+员工: yixuan huang</t>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0" shapeId="0">
+      <text>
+        <t>异常类型: mixed_separators
+时间字符串包含多种分隔符，可能导致解析错误
+员工: Jack</t>
+      </text>
+    </comment>
+    <comment ref="O3" authorId="0" shapeId="0">
+      <text>
+        <t>异常类型: mixed_separators
+时间字符串包含多种分隔符，可能导致解析错误
+员工: Jack</t>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0" shapeId="0">
+      <text>
+        <t>异常类型: long_work_span
+工作时间异常长 (12.88h)
+员工: lyn chen</t>
+      </text>
+    </comment>
+    <comment ref="D24" authorId="0" shapeId="0">
+      <text>
+        <t>异常类型: time_sequence_error
+打卡时间顺序混乱，后一个时间早于前一个时间
+员工: jin lin</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>系统检测</author>
@@ -379,7 +487,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>系统检测</author>
@@ -489,7 +597,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>系统检测</author>
@@ -1053,7 +1161,7 @@
 </t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">10:12  
 10:49
@@ -1064,7 +1172,7 @@
 </t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">09:42  
 10:50
@@ -1073,7 +1181,7 @@
 </t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">10:36  
 11:18 11:33
@@ -1081,7 +1189,7 @@
 </t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">10:26  
 11:09
@@ -1092,7 +1200,7 @@
 </t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>14:48  
 15:16</t>
@@ -1139,7 +1247,7 @@
 </t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">10:00  
 10:32
@@ -1148,7 +1256,7 @@
 </t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>13:41  
 14:07</t>
@@ -1265,7 +1373,7 @@
 </t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" s="3" t="inlineStr">
         <is>
           <t>09:44 
 13:40</t>
@@ -1317,7 +1425,7 @@
 </t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="O3" s="3" t="inlineStr">
         <is>
           <t>09:32 
 13:30</t>
@@ -1578,7 +1686,7 @@
 </t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">09:58
 13:21
@@ -4629,7 +4737,7 @@
 </t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D24" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">13:30
 15:30
@@ -16272,6 +16380,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
@@ -16371,7 +16480,7 @@
 </t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">10:12  
 10:49
@@ -16382,7 +16491,7 @@
 </t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">09:42  
 10:50
@@ -16391,7 +16500,7 @@
 </t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">10:36  
 11:18 11:33
@@ -16399,7 +16508,7 @@
 </t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">10:26  
 11:09
@@ -16410,7 +16519,7 @@
 </t>
         </is>
       </c>
-      <c r="H2" s="1" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>14:48  
 15:16</t>
@@ -16457,7 +16566,7 @@
 </t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">10:00  
 10:32
@@ -16466,7 +16575,7 @@
 </t>
         </is>
       </c>
-      <c r="O2" s="1" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>13:41  
 14:07</t>
@@ -16523,7 +16632,7 @@
 </t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" s="3" t="inlineStr">
         <is>
           <t>09:44 
 13:40</t>
@@ -16575,7 +16684,7 @@
 </t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="O3" s="3" t="inlineStr">
         <is>
           <t>09:32 
 13:30</t>
@@ -16716,7 +16825,7 @@
 </t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">09:58
 13:21
@@ -18637,7 +18746,7 @@
 </t>
         </is>
       </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="D24" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">13:30
 15:30
@@ -22744,7 +22853,7 @@
 </t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">10:12  
 10:49
@@ -22755,7 +22864,7 @@
 </t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">09:42  
 10:50
@@ -22764,7 +22873,7 @@
 </t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">10:36  
 11:18 11:33
@@ -22772,7 +22881,7 @@
 </t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">10:26  
 11:09
@@ -22783,7 +22892,7 @@
 </t>
         </is>
       </c>
-      <c r="H2" s="1" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>14:48  
 15:16</t>
@@ -22830,7 +22939,7 @@
 </t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">10:00  
 10:32
@@ -22839,7 +22948,7 @@
 </t>
         </is>
       </c>
-      <c r="O2" s="1" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>13:41  
 14:07</t>
@@ -22896,7 +23005,7 @@
 </t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="H3" s="3" t="inlineStr">
         <is>
           <t>09:44 
 13:40</t>
@@ -22948,7 +23057,7 @@
 </t>
         </is>
       </c>
-      <c r="O3" s="1" t="inlineStr">
+      <c r="O3" s="3" t="inlineStr">
         <is>
           <t>09:32 
 13:30</t>
@@ -23089,7 +23198,7 @@
 </t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">09:58
 13:21
@@ -25010,7 +25119,7 @@
 </t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D24" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">13:30
 15:30
@@ -29117,7 +29226,7 @@
 </t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">10:12  
 10:49
@@ -29128,7 +29237,7 @@
 </t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">09:42  
 10:50
@@ -29137,7 +29246,7 @@
 </t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">10:36  
 11:18 11:33
@@ -29145,7 +29254,7 @@
 </t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">10:26  
 11:09
@@ -29156,7 +29265,7 @@
 </t>
         </is>
       </c>
-      <c r="H2" s="1" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>14:48  
 15:16</t>
@@ -29203,7 +29312,7 @@
 </t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">10:00  
 10:32
@@ -29212,7 +29321,7 @@
 </t>
         </is>
       </c>
-      <c r="O2" s="1" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>13:41  
 14:07</t>
@@ -29269,7 +29378,7 @@
 </t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="H3" s="3" t="inlineStr">
         <is>
           <t>09:44 
 13:40</t>
@@ -29321,7 +29430,7 @@
 </t>
         </is>
       </c>
-      <c r="O3" s="1" t="inlineStr">
+      <c r="O3" s="3" t="inlineStr">
         <is>
           <t>09:32 
 13:30</t>
@@ -29462,7 +29571,7 @@
 </t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">09:58
 13:21
@@ -31383,7 +31492,7 @@
 </t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D24" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">13:30
 15:30
@@ -35400,7 +35509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35408,17 +35517,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="25.2" customWidth="1" min="1" max="1"/>
     <col width="18" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>处理统计</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr"/>
+      <c r="B1" s="6" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -35465,12 +35574,12 @@
       <c r="B6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>考勤统计</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr"/>
+      <c r="B7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -35507,12 +35616,12 @@
     <row r="13"/>
     <row r="14"/>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="A15" s="6" t="inlineStr">
         <is>
           <t>异常类型颜色说明</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr"/>
+      <c r="B15" s="6" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -35596,6 +35705,69 @@
         <is>
           <t>金色 - 工作时间过长</t>
         </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>计算错误</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>橙红色 - 工时计算失败</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>零工时</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>浅粉色 - 工时为零</t>
+        </is>
+      </c>
+    </row>
+    <row r="25"/>
+    <row r="26">
+      <c r="A26" s="6" t="inlineStr">
+        <is>
+          <t>异常处理统计</t>
+        </is>
+      </c>
+      <c r="B26" s="6" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>mixed_separators</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>long_work_span</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>time_sequence_error</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
